--- a/data/trans_dic/P19C02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.500071301971993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5654683755878074</v>
+        <v>0.5654683755878073</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4204288449888073</v>
@@ -685,7 +685,7 @@
         <v>0.4443047862310443</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.556806218991536</v>
+        <v>0.5568062189915362</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3799240847444835</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.308071366452137</v>
+        <v>0.3054663888053729</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3564195945365184</v>
+        <v>0.3581073852231164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.44631141064605</v>
+        <v>0.4517718319589108</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5198880107145745</v>
+        <v>0.5217028539003438</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3634381579419507</v>
+        <v>0.3608987310911217</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3469145350138561</v>
+        <v>0.3451416433481546</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3817578790903493</v>
+        <v>0.3839337718251562</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5146733777061728</v>
+        <v>0.51652946021833</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3463105297007753</v>
+        <v>0.3418144120671973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3697077835690977</v>
+        <v>0.3695547428609905</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4388146376086522</v>
+        <v>0.4370497475073635</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5297187290963637</v>
+        <v>0.5306287834638275</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4014612625842755</v>
+        <v>0.4079171856798449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.462388626446483</v>
+        <v>0.4653040978745982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5509315432951349</v>
+        <v>0.5573414182505219</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6051467747020994</v>
+        <v>0.6107921753620669</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4837520003677714</v>
+        <v>0.4806838830644647</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4662853770784997</v>
+        <v>0.4634541558151384</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.497153491242637</v>
+        <v>0.5020184629080188</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5956857272911236</v>
+        <v>0.5979961679165398</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.418592070607168</v>
+        <v>0.4149488284671232</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4501713650920343</v>
+        <v>0.4494391583451836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5170374842288162</v>
+        <v>0.5162889722806855</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.589334804314773</v>
+        <v>0.5927402370003739</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4723362020795615</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5861393152285381</v>
+        <v>0.5861393152285382</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3915483013860442</v>
@@ -833,7 +833,7 @@
         <v>0.438642619486131</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5709180061276152</v>
+        <v>0.5709180061276151</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3369016150077306</v>
+        <v>0.3302295084945752</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3564237521186631</v>
+        <v>0.3579334867408581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3468012859003798</v>
+        <v>0.3449097985723764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5076639998669739</v>
+        <v>0.5112567214937019</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3453015622386602</v>
+        <v>0.3448845569567944</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3427957772236753</v>
+        <v>0.3466296879923214</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.413326988758589</v>
+        <v>0.4161017812148607</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5423012758071797</v>
+        <v>0.5440563957615568</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3503455361535114</v>
+        <v>0.3463269624549377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3696912612121223</v>
+        <v>0.3692211790068767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3999034434959169</v>
+        <v>0.3999816859666361</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.539361766610386</v>
+        <v>0.5394772036527173</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4564558179251354</v>
+        <v>0.4464865429788041</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4645996078498675</v>
+        <v>0.4682412464631851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4597794299794485</v>
+        <v>0.4539281076461016</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6010160578549109</v>
+        <v>0.6034939025923544</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4491381198947896</v>
+        <v>0.4551223894243883</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4585305747474484</v>
+        <v>0.4630161265555371</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5263393286860222</v>
+        <v>0.5302412040940264</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6254702968237508</v>
+        <v>0.6264732079810552</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4299839673357047</v>
+        <v>0.4334346544012229</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4469697388523749</v>
+        <v>0.4499658654692807</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4809765175445244</v>
+        <v>0.4849227145200909</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6048457866621463</v>
+        <v>0.6044104354526068</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3152515230476262</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.487610998451424</v>
+        <v>0.4876109984514241</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3463167471770305</v>
@@ -957,7 +957,7 @@
         <v>0.3768326611299339</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5636735612607711</v>
+        <v>0.5636735612607712</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3165257924459201</v>
@@ -969,7 +969,7 @@
         <v>0.3310157844386625</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5092834382361944</v>
+        <v>0.5092834382361945</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2621264823633383</v>
+        <v>0.2655706652641833</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2647741853424527</v>
+        <v>0.2678965830089239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2732427867945761</v>
+        <v>0.2643633248612572</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4373844240892584</v>
+        <v>0.4370689361246089</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2709390991005569</v>
+        <v>0.2753769706172978</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2623077093841029</v>
+        <v>0.2627650580422066</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3001478061491262</v>
+        <v>0.3014288346982217</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4930354273493837</v>
+        <v>0.5048460954458488</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2786960174523347</v>
+        <v>0.2754591493327425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.280944221156932</v>
+        <v>0.2763581744647304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2914822749293484</v>
+        <v>0.2941172968498131</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4697681602974494</v>
+        <v>0.4713856172933227</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3520847152553238</v>
+        <v>0.3524959307833837</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3492174300765141</v>
+        <v>0.3467014307432517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3633291917788068</v>
+        <v>0.3627304680711413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5325820874516216</v>
+        <v>0.5321060589027281</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4223288516868629</v>
+        <v>0.4320115552964324</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3868865366201134</v>
+        <v>0.3915033744838614</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4599477790697113</v>
+        <v>0.4721253557505903</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6172556449637374</v>
+        <v>0.626057511251354</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3574475239060549</v>
+        <v>0.355150684993983</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3467267491499422</v>
+        <v>0.3448553593382229</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3713823974197823</v>
+        <v>0.3739368734270423</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5480548992706703</v>
+        <v>0.5456020443309563</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.338035877212469</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4427964891217294</v>
+        <v>0.4427964891217293</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2113779769651068</v>
+        <v>0.211313232094959</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2177652457324248</v>
+        <v>0.2192504033158442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2667255148584414</v>
+        <v>0.2694018456353625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3758542053162833</v>
+        <v>0.3782060375233315</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2538823855402182</v>
+        <v>0.2534426104549937</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3171855924348947</v>
+        <v>0.3157310883793513</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.351038241382105</v>
+        <v>0.3497959836179538</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4582917647224605</v>
+        <v>0.4586551541450767</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.238340595991263</v>
+        <v>0.2371859292065601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2691948797035326</v>
+        <v>0.2703813160291063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3136092379333609</v>
+        <v>0.3151526644448766</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4204783562228727</v>
+        <v>0.4200331485726569</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2715683825627112</v>
+        <v>0.2714381680685862</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2791191133856047</v>
+        <v>0.2769224591742244</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3334813576455487</v>
+        <v>0.3312670148868963</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4432796444085357</v>
+        <v>0.4426002416845641</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3297965210613145</v>
+        <v>0.3273526964451012</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3901726580577733</v>
+        <v>0.3945367834399086</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4239451896699449</v>
+        <v>0.4261802067196721</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5175967016950945</v>
+        <v>0.5152440951641244</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2839415692421473</v>
+        <v>0.2851207386321306</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3142234672030356</v>
+        <v>0.3176285892553307</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3637877621415443</v>
+        <v>0.3630401087342202</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4665851354177078</v>
+        <v>0.4656583954062932</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3191201576873869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3724256644145789</v>
+        <v>0.372425664414579</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.23737371013798</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1264138278375616</v>
+        <v>0.1305375270948486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1603028310014982</v>
+        <v>0.1597710916736967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2752775676903291</v>
+        <v>0.2738715374758038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.328306643255149</v>
+        <v>0.3306172734710964</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1980138381299508</v>
+        <v>0.1989586805220225</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2265810682629701</v>
+        <v>0.2263042608041677</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2946796311791741</v>
+        <v>0.2939921684695981</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3976404055719865</v>
+        <v>0.4033080212197165</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1852948872561241</v>
+        <v>0.1884006228902951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2121328059739499</v>
+        <v>0.2117919631343678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2974500586429059</v>
+        <v>0.2926168297948565</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3799507748731927</v>
+        <v>0.3782927571950044</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2300747947785916</v>
+        <v>0.2299219341038203</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2380015239613918</v>
+        <v>0.2331510554476887</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3634946517311076</v>
+        <v>0.3677446870141659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4243067094608179</v>
+        <v>0.4217383066060736</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.282370372274412</v>
+        <v>0.280035740167584</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2958925622393889</v>
+        <v>0.2957942965374088</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3784123856196177</v>
+        <v>0.3726065920999993</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4580415358866315</v>
+        <v>0.4597224260023761</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2494527349321901</v>
+        <v>0.2489433969164022</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2645121896375166</v>
+        <v>0.2655790459173353</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3563171619173977</v>
+        <v>0.3544221636437742</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.432535825469777</v>
+        <v>0.4329368288481887</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.312277737574902</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5667553299700101</v>
+        <v>0.56675532997001</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2367447562932844</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2486577256901723</v>
+        <v>0.2483815963041658</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2203018613422304</v>
+        <v>0.2154233602453036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2549847509890213</v>
+        <v>0.2533880552714371</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4696416889393599</v>
+        <v>0.4622969170379688</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2114897452800344</v>
+        <v>0.2129318483010089</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2272720137730342</v>
+        <v>0.2257254420437912</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2874599196916304</v>
+        <v>0.2885607431036811</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4044453657390063</v>
+        <v>0.4024292374337393</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2239649273396417</v>
+        <v>0.2252659737262261</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2306578385403616</v>
+        <v>0.231754719008388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2883591274135205</v>
+        <v>0.2893800970791296</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4284823219568104</v>
+        <v>0.4317449792026589</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3737649597215281</v>
+        <v>0.3699483037831854</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3361232698938477</v>
+        <v>0.3337589979951548</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3747359948243507</v>
+        <v>0.3827553037370683</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6719872101317423</v>
+        <v>0.6680625801168101</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2658076289830283</v>
+        <v>0.2654698561794033</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.286523863469404</v>
+        <v>0.2839410382811222</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3552352724577004</v>
+        <v>0.3546566262002848</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4733867019411312</v>
+        <v>0.4689832634362112</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2776583198521755</v>
+        <v>0.2739145657976909</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2850758852054148</v>
+        <v>0.280463752641254</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3497083829390528</v>
+        <v>0.348978405336148</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.502262776972381</v>
+        <v>0.502707480005035</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.3605444497778772</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.480115267995759</v>
+        <v>0.4801152679957591</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2685441606059739</v>
+        <v>0.2681801958881989</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.279798102254665</v>
+        <v>0.2788131608436946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3287990639330673</v>
+        <v>0.3298677543687418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4550060409412294</v>
+        <v>0.4528912244888464</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2733023288147531</v>
+        <v>0.2735827441646518</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2945801205357481</v>
+        <v>0.2946187588916352</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3541044591843566</v>
+        <v>0.3545759138299995</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4734589357519839</v>
+        <v>0.4729082589486283</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2762483998456121</v>
+        <v>0.2771645503452689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2931946238906063</v>
+        <v>0.292019954637429</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3477591394650231</v>
+        <v>0.3477979299305893</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4668935042904117</v>
+        <v>0.4678793335470466</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3066198253685127</v>
+        <v>0.3049641758020639</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3147527280151632</v>
+        <v>0.3125678172920416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3664272454095189</v>
+        <v>0.3671590703184928</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4925523334390617</v>
+        <v>0.4910690966948716</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3088395516601984</v>
+        <v>0.3085568657444163</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3290809664223499</v>
+        <v>0.3286097607446328</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3908507855660471</v>
+        <v>0.3930161894833887</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5015808107544749</v>
+        <v>0.5016963095587952</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3020214227718288</v>
+        <v>0.3029000469532709</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3163841903165612</v>
+        <v>0.3158329904656893</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.373524982973696</v>
+        <v>0.3733815142761541</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.491874552160775</v>
+        <v>0.4923021694516666</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>119009</v>
+        <v>118002</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140535</v>
+        <v>141200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>172997</v>
+        <v>175113</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>281891</v>
+        <v>282875</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>97506</v>
+        <v>96824</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>101977</v>
+        <v>101456</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>120565</v>
+        <v>121252</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>247726</v>
+        <v>248620</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>226691</v>
+        <v>223748</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>254452</v>
+        <v>254346</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>308675</v>
+        <v>307434</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>542189</v>
+        <v>543120</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>155085</v>
+        <v>157579</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>182318</v>
+        <v>183468</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>213549</v>
+        <v>216033</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>328120</v>
+        <v>331181</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>129784</v>
+        <v>128961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>137066</v>
+        <v>136234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>157009</v>
+        <v>158545</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>286720</v>
+        <v>287832</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>274006</v>
+        <v>271621</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>309831</v>
+        <v>309327</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>363700</v>
+        <v>363173</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>603208</v>
+        <v>606694</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>101140</v>
+        <v>99137</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>136768</v>
+        <v>137348</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>109817</v>
+        <v>109218</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>243340</v>
+        <v>245062</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>115181</v>
+        <v>115041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>107467</v>
+        <v>108669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>137876</v>
+        <v>138801</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>226639</v>
+        <v>227372</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>222038</v>
+        <v>219492</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>257758</v>
+        <v>257430</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>260030</v>
+        <v>260081</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>483944</v>
+        <v>484048</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>137030</v>
+        <v>134037</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>178278</v>
+        <v>179675</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>145593</v>
+        <v>143740</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>288086</v>
+        <v>289274</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>149817</v>
+        <v>151813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>143750</v>
+        <v>145156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>175574</v>
+        <v>176875</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>261397</v>
+        <v>261816</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>272511</v>
+        <v>274698</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>311638</v>
+        <v>313727</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>312746</v>
+        <v>315312</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>542700</v>
+        <v>542309</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>112784</v>
+        <v>114266</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>141783</v>
+        <v>143455</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>110721</v>
+        <v>107123</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>202887</v>
+        <v>202741</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37950</v>
+        <v>38572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63402</v>
+        <v>63512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41847</v>
+        <v>42026</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>91129</v>
+        <v>93312</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>158950</v>
+        <v>157104</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>218348</v>
+        <v>214784</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>158751</v>
+        <v>160186</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>304738</v>
+        <v>305787</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>151490</v>
+        <v>151667</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>187002</v>
+        <v>185654</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>147225</v>
+        <v>146982</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>247046</v>
+        <v>246825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59155</v>
+        <v>60511</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>93513</v>
+        <v>94629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64126</v>
+        <v>65824</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>114089</v>
+        <v>115716</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>203865</v>
+        <v>202555</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>269474</v>
+        <v>268020</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>202267</v>
+        <v>203658</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>355522</v>
+        <v>353931</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>184206</v>
+        <v>184150</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>211390</v>
+        <v>212832</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>234586</v>
+        <v>236940</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>411477</v>
+        <v>414051</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>150892</v>
+        <v>150630</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>221690</v>
+        <v>220673</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>240121</v>
+        <v>239271</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>383494</v>
+        <v>383798</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>349358</v>
+        <v>347665</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>449462</v>
+        <v>451442</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>490339</v>
+        <v>492753</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>812182</v>
+        <v>811322</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>236659</v>
+        <v>236546</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>270948</v>
+        <v>268815</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>293299</v>
+        <v>291351</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>485292</v>
+        <v>484549</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>196010</v>
+        <v>194558</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>272702</v>
+        <v>275752</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>289992</v>
+        <v>291520</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>433120</v>
+        <v>431151</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>416199</v>
+        <v>417927</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>524644</v>
+        <v>530329</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>568795</v>
+        <v>567626</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>901240</v>
+        <v>899450</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31341</v>
+        <v>32364</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>64652</v>
+        <v>64438</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>117039</v>
+        <v>116442</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>167386</v>
+        <v>168565</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>90310</v>
+        <v>90741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>151982</v>
+        <v>151796</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>164278</v>
+        <v>163895</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>315530</v>
+        <v>320027</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>130449</v>
+        <v>132635</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>227846</v>
+        <v>227480</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>292289</v>
+        <v>287540</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>495210</v>
+        <v>493049</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>57042</v>
+        <v>57004</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>95989</v>
+        <v>94033</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>154547</v>
+        <v>156354</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>216332</v>
+        <v>215022</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>128783</v>
+        <v>127719</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>198473</v>
+        <v>198408</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>210958</v>
+        <v>207721</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>363458</v>
+        <v>364792</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>175616</v>
+        <v>175258</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>284106</v>
+        <v>285252</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>350135</v>
+        <v>348273</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>563747</v>
+        <v>564270</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>52773</v>
+        <v>52715</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>48731</v>
+        <v>47652</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>61591</v>
+        <v>61205</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>106039</v>
+        <v>104381</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>199773</v>
+        <v>201135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>210314</v>
+        <v>208883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>237238</v>
+        <v>238146</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>331136</v>
+        <v>329486</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>259090</v>
+        <v>260595</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>264470</v>
+        <v>265727</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>307632</v>
+        <v>308721</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>447562</v>
+        <v>450970</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>79325</v>
+        <v>78515</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>74351</v>
+        <v>73828</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>90517</v>
+        <v>92454</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>151726</v>
+        <v>150840</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>251082</v>
+        <v>250763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>265145</v>
+        <v>262755</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>293172</v>
+        <v>292694</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>387582</v>
+        <v>383976</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>321204</v>
+        <v>316873</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>326865</v>
+        <v>321576</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>373082</v>
+        <v>372303</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>524628</v>
+        <v>525093</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>657500</v>
+        <v>656609</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>813862</v>
+        <v>810997</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>873193</v>
+        <v>876031</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1508720</v>
+        <v>1501708</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>748011</v>
+        <v>748778</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>926230</v>
+        <v>926351</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1011185</v>
+        <v>1012532</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1672786</v>
+        <v>1670841</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1432437</v>
+        <v>1437188</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1774703</v>
+        <v>1767592</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1916611</v>
+        <v>1916825</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3197727</v>
+        <v>3204478</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>750724</v>
+        <v>746671</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>915536</v>
+        <v>909181</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>973123</v>
+        <v>975066</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1633217</v>
+        <v>1628299</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>845274</v>
+        <v>844500</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1034709</v>
+        <v>1033227</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1116119</v>
+        <v>1122302</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1772144</v>
+        <v>1772552</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1566079</v>
+        <v>1570635</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1915069</v>
+        <v>1911732</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2058615</v>
+        <v>2057824</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>3368820</v>
+        <v>3371749</v>
       </c>
     </row>
     <row r="32">
